--- a/Output/ModelAggregates/PrimaryModels.xlsx
+++ b/Output/ModelAggregates/PrimaryModels.xlsx
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.92</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.341</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1.382</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="6">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="D6">
-        <v>4.775</v>
+        <v>4.688</v>
       </c>
       <c r="E6">
-        <v>0.275</v>
+        <v>0.307</v>
       </c>
       <c r="F6">
-        <v>49.459</v>
+        <v>49.429</v>
       </c>
       <c r="G6">
-        <v>4.138</v>
+        <v>3.978</v>
       </c>
       <c r="H6">
-        <v>5.412</v>
+        <v>5.397</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -666,22 +666,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.015</v>
+        <v>-0.029</v>
       </c>
       <c r="E7">
-        <v>0.284</v>
+        <v>0.309</v>
       </c>
       <c r="F7">
-        <v>44.98</v>
+        <v>45.415</v>
       </c>
       <c r="G7">
-        <v>-0.643</v>
+        <v>-0.745</v>
       </c>
       <c r="H7">
-        <v>0.673</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="I7">
-        <v>0.958</v>
+        <v>0.926</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.916</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="8">
@@ -708,26 +708,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>m_1_2</t>
+          <t>sexM</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.015</v>
+        <v>-0.227</v>
       </c>
       <c r="E8">
-        <v>0.048</v>
+        <v>0.53</v>
       </c>
       <c r="F8">
-        <v>49.12</v>
+        <v>48.012</v>
       </c>
       <c r="G8">
-        <v>-0.096</v>
+        <v>-1.453</v>
       </c>
       <c r="H8">
-        <v>0.127</v>
+        <v>0.999</v>
       </c>
       <c r="I8">
-        <v>0.755</v>
+        <v>0.67</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.509</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="9">
@@ -754,26 +754,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sexM</t>
+          <t>ifn_1_netto</t>
         </is>
       </c>
       <c r="D9">
-        <v>-0.186</v>
+        <v>0.06</v>
       </c>
       <c r="E9">
-        <v>0.537</v>
+        <v>0.092</v>
       </c>
       <c r="F9">
-        <v>48.485</v>
+        <v>49.114</v>
       </c>
       <c r="G9">
-        <v>-1.429</v>
+        <v>-0.152</v>
       </c>
       <c r="H9">
-        <v>1.057</v>
+        <v>0.272</v>
       </c>
       <c r="I9">
-        <v>0.731</v>
+        <v>0.516</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.462</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="10">
@@ -804,22 +804,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.515</v>
+        <v>-0.66</v>
       </c>
       <c r="E10">
-        <v>0.359</v>
+        <v>0.394</v>
       </c>
       <c r="F10">
-        <v>44.046</v>
+        <v>43.974</v>
       </c>
       <c r="G10">
-        <v>-1.348</v>
+        <v>-1.575</v>
       </c>
       <c r="H10">
-        <v>0.317</v>
+        <v>0.256</v>
       </c>
       <c r="I10">
-        <v>0.158</v>
+        <v>0.101</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.316</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="11">
@@ -846,26 +846,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>timepointfollowup:treatcontrol:m_1_2</t>
+          <t>timepointfollowup:ifn_1_netto</t>
         </is>
       </c>
       <c r="D11">
-        <v>-0.013</v>
+        <v>-0.005</v>
       </c>
       <c r="E11">
-        <v>0.047</v>
+        <v>0.089</v>
       </c>
       <c r="F11">
-        <v>44.983</v>
+        <v>45.457</v>
       </c>
       <c r="G11">
-        <v>-0.122</v>
+        <v>-0.21</v>
       </c>
       <c r="H11">
-        <v>0.097</v>
+        <v>0.2</v>
       </c>
       <c r="I11">
-        <v>0.79</v>
+        <v>0.957</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.58</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="12">
@@ -892,26 +892,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>timepointfollowup:treatexercise:m_1_2</t>
+          <t>timepointfollowup:treatexercise:ifn_1_netto</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.138</v>
+        <v>0.294</v>
       </c>
       <c r="E12">
-        <v>0.048</v>
+        <v>0.125</v>
       </c>
       <c r="F12">
-        <v>44.922</v>
+        <v>43.968</v>
       </c>
       <c r="G12">
-        <v>0.026</v>
+        <v>0.004</v>
       </c>
       <c r="H12">
-        <v>0.25</v>
+        <v>0.584</v>
       </c>
       <c r="I12">
-        <v>0.006</v>
+        <v>0.023</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.013</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="13">
@@ -942,19 +942,19 @@
         </is>
       </c>
       <c r="D13">
-        <v>27.855</v>
+        <v>27.88</v>
       </c>
       <c r="E13">
-        <v>1.053</v>
+        <v>1.051</v>
       </c>
       <c r="F13">
-        <v>52.061</v>
+        <v>52.486</v>
       </c>
       <c r="G13">
-        <v>25.742</v>
+        <v>25.456</v>
       </c>
       <c r="H13">
-        <v>29.968</v>
+        <v>30.304</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -988,33 +988,33 @@
         </is>
       </c>
       <c r="D14">
-        <v>-1.608</v>
+        <v>-1.644</v>
       </c>
       <c r="E14">
-        <v>0.451</v>
+        <v>0.418</v>
       </c>
       <c r="F14">
-        <v>45.65</v>
+        <v>48.953</v>
       </c>
       <c r="G14">
-        <v>-2.516</v>
+        <v>-2.611</v>
       </c>
       <c r="H14">
-        <v>-0.701</v>
+        <v>-0.677</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Full effects</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>0.001</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Full effects</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0.002</v>
       </c>
     </row>
     <row r="15">
@@ -1034,22 +1034,22 @@
         </is>
       </c>
       <c r="D15">
-        <v>-1.062</v>
+        <v>-0.9360000000000001</v>
       </c>
       <c r="E15">
-        <v>0.583</v>
+        <v>0.571</v>
       </c>
       <c r="F15">
-        <v>49.773</v>
+        <v>52.134</v>
       </c>
       <c r="G15">
-        <v>-2.232</v>
+        <v>-2.255</v>
       </c>
       <c r="H15">
-        <v>0.109</v>
+        <v>0.383</v>
       </c>
       <c r="I15">
-        <v>0.074</v>
+        <v>0.107</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.149</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="16">
@@ -1080,22 +1080,22 @@
         </is>
       </c>
       <c r="D16">
-        <v>3.906</v>
+        <v>3.723</v>
       </c>
       <c r="E16">
-        <v>2.651</v>
+        <v>2.613</v>
       </c>
       <c r="F16">
-        <v>52.587</v>
+        <v>51.52</v>
       </c>
       <c r="G16">
-        <v>-1.412</v>
+        <v>-2.31</v>
       </c>
       <c r="H16">
-        <v>9.224</v>
+        <v>9.756</v>
       </c>
       <c r="I16">
-        <v>0.147</v>
+        <v>0.16</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.293</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="17">
@@ -1126,22 +1126,22 @@
         </is>
       </c>
       <c r="D17">
-        <v>2.453</v>
+        <v>2.307</v>
       </c>
       <c r="E17">
-        <v>0.772</v>
+        <v>0.758</v>
       </c>
       <c r="F17">
-        <v>45.744</v>
+        <v>46.699</v>
       </c>
       <c r="G17">
-        <v>0.898</v>
+        <v>0.551</v>
       </c>
       <c r="H17">
-        <v>4.008</v>
+        <v>4.063</v>
       </c>
       <c r="I17">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="18">
@@ -1172,19 +1172,19 @@
         </is>
       </c>
       <c r="D18">
-        <v>29.066</v>
+        <v>29.929</v>
       </c>
       <c r="E18">
-        <v>1.455</v>
+        <v>1.61</v>
       </c>
       <c r="F18">
-        <v>50.259</v>
+        <v>50.096</v>
       </c>
       <c r="G18">
-        <v>26.144</v>
+        <v>26.209</v>
       </c>
       <c r="H18">
-        <v>31.989</v>
+        <v>33.649</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1218,22 +1218,22 @@
         </is>
       </c>
       <c r="D19">
-        <v>-1.461</v>
+        <v>-1.404</v>
       </c>
       <c r="E19">
-        <v>0.65</v>
+        <v>0.678</v>
       </c>
       <c r="F19">
-        <v>43.984</v>
+        <v>47.054</v>
       </c>
       <c r="G19">
-        <v>-2.772</v>
+        <v>-2.973</v>
       </c>
       <c r="H19">
-        <v>-0.151</v>
+        <v>0.166</v>
       </c>
       <c r="I19">
-        <v>0.03</v>
+        <v>0.044</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.059</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="D20">
-        <v>-1.213</v>
+        <v>-1.132</v>
       </c>
       <c r="E20">
-        <v>0.895</v>
+        <v>0.982</v>
       </c>
       <c r="F20">
-        <v>47.23</v>
+        <v>46.672</v>
       </c>
       <c r="G20">
-        <v>-3.012</v>
+        <v>-3.405</v>
       </c>
       <c r="H20">
-        <v>0.587</v>
+        <v>1.142</v>
       </c>
       <c r="I20">
-        <v>0.182</v>
+        <v>0.255</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.363</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="21">
@@ -1306,26 +1306,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>m_1_2</t>
+          <t>sexM</t>
         </is>
       </c>
       <c r="D21">
-        <v>-0.274</v>
+        <v>3.65</v>
       </c>
       <c r="E21">
-        <v>0.257</v>
+        <v>2.512</v>
       </c>
       <c r="F21">
-        <v>49.269</v>
+        <v>49.274</v>
       </c>
       <c r="G21">
-        <v>-0.791</v>
+        <v>-2.157</v>
       </c>
       <c r="H21">
-        <v>0.243</v>
+        <v>9.456</v>
       </c>
       <c r="I21">
-        <v>0.293</v>
+        <v>0.153</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.585</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="22">
@@ -1352,26 +1352,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sexM</t>
+          <t>ifn_1_netto</t>
         </is>
       </c>
       <c r="D22">
-        <v>3.69</v>
+        <v>-0.753</v>
       </c>
       <c r="E22">
-        <v>2.579</v>
+        <v>0.485</v>
       </c>
       <c r="F22">
-        <v>49.793</v>
+        <v>49.263</v>
       </c>
       <c r="G22">
-        <v>-1.491</v>
+        <v>-1.874</v>
       </c>
       <c r="H22">
-        <v>8.869999999999999</v>
+        <v>0.367</v>
       </c>
       <c r="I22">
-        <v>0.159</v>
+        <v>0.127</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.318</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="23">
@@ -1402,22 +1402,22 @@
         </is>
       </c>
       <c r="D23">
-        <v>3.396</v>
+        <v>3.325</v>
       </c>
       <c r="E23">
-        <v>1.067</v>
+        <v>1.209</v>
       </c>
       <c r="F23">
-        <v>41.992</v>
+        <v>41.768</v>
       </c>
       <c r="G23">
-        <v>1.243</v>
+        <v>0.514</v>
       </c>
       <c r="H23">
-        <v>5.549</v>
+        <v>6.137</v>
       </c>
       <c r="I23">
-        <v>0.003</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1425,10 +1425,10 @@
         </is>
       </c>
       <c r="K23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.005</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="24">
@@ -1444,26 +1444,26 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>timepointbaseline:treatcontrol:m_1_2</t>
+          <t>timepointbaseline:ifn_1_netto</t>
         </is>
       </c>
       <c r="D24">
-        <v>-0.033</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="E24">
-        <v>0.118</v>
+        <v>0.211</v>
       </c>
       <c r="F24">
-        <v>43.349</v>
+        <v>47.341</v>
       </c>
       <c r="G24">
-        <v>-0.272</v>
+        <v>-0.578</v>
       </c>
       <c r="H24">
-        <v>0.205</v>
+        <v>0.402</v>
       </c>
       <c r="I24">
-        <v>0.78</v>
+        <v>0.679</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.559</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="25">
@@ -1490,26 +1490,26 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>timepointfollowup:treatcontrol:m_1_2</t>
+          <t>timepointfollowup:ifn_1_netto</t>
         </is>
       </c>
       <c r="D25">
-        <v>0.056</v>
+        <v>0.105</v>
       </c>
       <c r="E25">
-        <v>0.151</v>
+        <v>0.29</v>
       </c>
       <c r="F25">
-        <v>46.417</v>
+        <v>46.146</v>
       </c>
       <c r="G25">
-        <v>-0.248</v>
+        <v>-0.5659999999999999</v>
       </c>
       <c r="H25">
-        <v>0.361</v>
+        <v>0.776</v>
       </c>
       <c r="I25">
-        <v>0.711</v>
+        <v>0.718</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.423</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="26">
@@ -1536,26 +1536,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>timepointfollowup:treatexercise:m_1_2</t>
+          <t>timepointfollowup:treatexercise:ifn_1_netto</t>
         </is>
       </c>
       <c r="D26">
-        <v>-0.326</v>
+        <v>-0.554</v>
       </c>
       <c r="E26">
-        <v>0.157</v>
+        <v>0.403</v>
       </c>
       <c r="F26">
-        <v>45.709</v>
+        <v>40.761</v>
       </c>
       <c r="G26">
-        <v>-0.642</v>
+        <v>-1.492</v>
       </c>
       <c r="H26">
-        <v>-0.008999999999999999</v>
+        <v>0.384</v>
       </c>
       <c r="I26">
-        <v>0.044</v>
+        <v>0.177</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>0.08799999999999999</v>
+        <v>0.354</v>
       </c>
     </row>
   </sheetData>
